--- a/data/EGM_Lectores.xlsx
+++ b/data/EGM_Lectores.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\github\Jupyter\EGM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\github\Statistics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8F87D2-0685-4025-91B2-CD0A755E3240}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D79937A-2D15-4858-BD86-052908D30650}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,79 +30,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="76">
   <si>
-    <t>Público Base: Universo</t>
-  </si>
-  <si>
-    <t>Público Objetivo: Universo</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
-    <t>EGM Colombia , 1ª ola de 2011</t>
-  </si>
-  <si>
-    <t>EGM Colombia , 2ª ola de 2011</t>
-  </si>
-  <si>
-    <t>EGM Colombia , 3ª ola de 2011</t>
-  </si>
-  <si>
-    <t>EGM Colombia , 1ª ola de 2012</t>
-  </si>
-  <si>
-    <t>EGM Colombia , 2ª ola de 2012</t>
-  </si>
-  <si>
-    <t>EGM Colombia , 3ª ola de 2012</t>
-  </si>
-  <si>
-    <t>EGM Colombia , 2ª ola de 2013</t>
-  </si>
-  <si>
-    <t>EGM Colombia , 3ª ola de 2013</t>
-  </si>
-  <si>
-    <t>EGM Colombia , 1ª ola de 2014</t>
-  </si>
-  <si>
-    <t>EGM Colombia , 2ª ola de 2014</t>
-  </si>
-  <si>
-    <t>EGM Colombia , 3ª ola de 2014</t>
-  </si>
-  <si>
-    <t>EGM Colombia , 1ª ola de 2015</t>
-  </si>
-  <si>
-    <t>EGM Colombia , 2ª ola de 2015</t>
-  </si>
-  <si>
-    <t>EGM Colombia , 3ª ola de 2015</t>
-  </si>
-  <si>
-    <t>EGM Colombia , 1ª ola de 2016</t>
-  </si>
-  <si>
-    <t>EGM Colombia , 2ª ola de 2016</t>
-  </si>
-  <si>
-    <t>EGM Colombia , 3ª ola de 2016</t>
-  </si>
-  <si>
-    <t>EGM Colombia , 1ª ola de 2017</t>
-  </si>
-  <si>
-    <t>EGM Colombia , 2ª ola de 2017</t>
-  </si>
-  <si>
     <t>CIUDAD</t>
-  </si>
-  <si>
-    <t>Bogotá</t>
-  </si>
-  <si>
-    <t>AUDIENCIA DE DIARIOS ÚLTIMO PERÍODO</t>
   </si>
   <si>
     <t>El Tiempo</t>
@@ -111,13 +42,7 @@
     <t>El Espectador</t>
   </si>
   <si>
-    <t>AUDIENCIA ÚLTIMO PERÍODO DE REVISTAS SEMANALES</t>
-  </si>
-  <si>
     <t>Revista Semana</t>
-  </si>
-  <si>
-    <t>AUDIENCIA ÚLTIMO PERÍODO DE REVISTAS QUINCENALES</t>
   </si>
   <si>
     <t>TV y Novelas</t>
@@ -135,16 +60,10 @@
     <t>Vea</t>
   </si>
   <si>
-    <t>AUDIENCIA ÚLTIMO PERÍODO DE REVISTAS MENSUALES</t>
-  </si>
-  <si>
     <t>15 Minutos</t>
   </si>
   <si>
     <t>Fucsia</t>
-  </si>
-  <si>
-    <t>AUDIENCIA ÚLTIMO PERÍODO DE REVISTAS DE PRENSA BIMESTRALES</t>
   </si>
   <si>
     <t>Autos</t>
@@ -156,9 +75,6 @@
     <t>Gastronomia</t>
   </si>
   <si>
-    <t>AUDIENCIA ÚLTIMO PERÍODO DE REVISTAS DE PRENSA TRIMESTRALES</t>
-  </si>
-  <si>
     <t>Buen Viaje</t>
   </si>
   <si>
@@ -166,9 +82,6 @@
   </si>
   <si>
     <t>Cartagena</t>
-  </si>
-  <si>
-    <t>Medellín</t>
   </si>
   <si>
     <t>Pereira</t>
@@ -180,16 +93,10 @@
     <t>Cali</t>
   </si>
   <si>
-    <t>Ibagué</t>
-  </si>
-  <si>
     <t>Bucaramanga</t>
   </si>
   <si>
     <t>Neiva</t>
-  </si>
-  <si>
-    <t>Cúcuta</t>
   </si>
   <si>
     <t>Villavicencio</t>
@@ -255,7 +162,100 @@
     <t>55 a 64</t>
   </si>
   <si>
-    <t>65 y más</t>
+    <t>EGM Colombia , 1a ola de 2011</t>
+  </si>
+  <si>
+    <t>EGM Colombia , 2a ola de 2011</t>
+  </si>
+  <si>
+    <t>EGM Colombia , 3a ola de 2011</t>
+  </si>
+  <si>
+    <t>EGM Colombia , 1a ola de 2012</t>
+  </si>
+  <si>
+    <t>EGM Colombia , 2a ola de 2012</t>
+  </si>
+  <si>
+    <t>EGM Colombia , 3a ola de 2012</t>
+  </si>
+  <si>
+    <t>EGM Colombia , 2a ola de 2013</t>
+  </si>
+  <si>
+    <t>EGM Colombia , 3a ola de 2013</t>
+  </si>
+  <si>
+    <t>EGM Colombia , 1a ola de 2014</t>
+  </si>
+  <si>
+    <t>EGM Colombia , 2a ola de 2014</t>
+  </si>
+  <si>
+    <t>EGM Colombia , 3a ola de 2014</t>
+  </si>
+  <si>
+    <t>EGM Colombia , 1a ola de 2015</t>
+  </si>
+  <si>
+    <t>EGM Colombia , 2a ola de 2015</t>
+  </si>
+  <si>
+    <t>EGM Colombia , 3a ola de 2015</t>
+  </si>
+  <si>
+    <t>EGM Colombia , 1a ola de 2016</t>
+  </si>
+  <si>
+    <t>EGM Colombia , 2a ola de 2016</t>
+  </si>
+  <si>
+    <t>EGM Colombia , 3a ola de 2016</t>
+  </si>
+  <si>
+    <t>EGM Colombia , 1a ola de 2017</t>
+  </si>
+  <si>
+    <t>EGM Colombia , 2a ola de 2017</t>
+  </si>
+  <si>
+    <t>Bogota</t>
+  </si>
+  <si>
+    <t>65 y mas</t>
+  </si>
+  <si>
+    <t>Ibague</t>
+  </si>
+  <si>
+    <t>Medellin</t>
+  </si>
+  <si>
+    <t>AUDIENCIA DE DIARIOS ULTIMO PERIODO</t>
+  </si>
+  <si>
+    <t>AUDIENCIA ULTIMO PERIODO DE REVISTAS SEMANALES</t>
+  </si>
+  <si>
+    <t>AUDIENCIA ULTIMO PERIODO DE REVISTAS QUINCENALES</t>
+  </si>
+  <si>
+    <t>AUDIENCIA ULTIMO PERIODO DE REVISTAS MENSUALES</t>
+  </si>
+  <si>
+    <t>AUDIENCIA ULTIMO PERIODO DE REVISTAS DE PRENSA BIMESTRALES</t>
+  </si>
+  <si>
+    <t>AUDIENCIA ULTIMO PERIODO DE REVISTAS DE PRENSA TRIMESTRALES</t>
+  </si>
+  <si>
+    <t>Publico Base: Universo</t>
+  </si>
+  <si>
+    <t>Publico Objetivo: Universo</t>
+  </si>
+  <si>
+    <t>Cucuta</t>
   </si>
 </sst>
 </file>
@@ -1096,98 +1096,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W471"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="G6" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="J6" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="K6" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="L6" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="M6" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="N6" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="O6" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="Q6" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="R6" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="S6" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="T6" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="U6" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="V6" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="W6" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>7577</v>
@@ -1249,10 +1252,10 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E8">
         <v>456</v>
@@ -1314,7 +1317,7 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E9">
         <v>798</v>
@@ -1376,10 +1379,10 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E10">
         <v>413</v>
@@ -1441,10 +1444,10 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E11">
         <v>755</v>
@@ -1506,7 +1509,7 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="E12">
         <v>225</v>
@@ -1568,7 +1571,7 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="E13">
         <v>853</v>
@@ -1630,7 +1633,7 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E14">
         <v>583</v>
@@ -1692,7 +1695,7 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E15">
         <v>917</v>
@@ -1754,10 +1757,10 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E16">
         <v>333</v>
@@ -1819,7 +1822,7 @@
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E17">
         <v>450</v>
@@ -1881,10 +1884,10 @@
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E18">
         <v>503</v>
@@ -1946,7 +1949,7 @@
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E19">
         <v>220</v>
@@ -2008,7 +2011,7 @@
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="E20">
         <v>876</v>
@@ -2070,10 +2073,10 @@
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="D21" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="E21">
         <v>195</v>
@@ -2135,10 +2138,10 @@
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>7691</v>
@@ -2200,10 +2203,10 @@
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E23">
         <v>624</v>
@@ -2265,7 +2268,7 @@
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E24">
         <v>398</v>
@@ -2327,10 +2330,10 @@
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D25" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E25">
         <v>528</v>
@@ -2392,10 +2395,10 @@
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="D26" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E26">
         <v>750</v>
@@ -2457,7 +2460,7 @@
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="E27">
         <v>895</v>
@@ -2519,7 +2522,7 @@
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="E28">
         <v>949</v>
@@ -2581,7 +2584,7 @@
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E29">
         <v>484</v>
@@ -2643,7 +2646,7 @@
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E30">
         <v>680</v>
@@ -2705,10 +2708,10 @@
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="D31" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E31">
         <v>115</v>
@@ -2770,7 +2773,7 @@
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E32">
         <v>364</v>
@@ -2832,10 +2835,10 @@
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="D33" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E33">
         <v>188</v>
@@ -2897,7 +2900,7 @@
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E34">
         <v>854</v>
@@ -2959,7 +2962,7 @@
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="E35">
         <v>202</v>
@@ -3021,10 +3024,10 @@
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="D36" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="E36">
         <v>660</v>
@@ -3086,10 +3089,10 @@
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="C37" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E37">
         <v>7915</v>
@@ -3151,10 +3154,10 @@
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D38" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E38">
         <v>157</v>
@@ -3216,7 +3219,7 @@
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E39">
         <v>152</v>
@@ -3278,10 +3281,10 @@
     </row>
     <row r="40" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D40" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E40">
         <v>284</v>
@@ -3343,10 +3346,10 @@
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="D41" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E41">
         <v>961</v>
@@ -3408,7 +3411,7 @@
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="E42">
         <v>869</v>
@@ -3470,7 +3473,7 @@
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="E43">
         <v>748</v>
@@ -3532,7 +3535,7 @@
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E44">
         <v>215</v>
@@ -3594,7 +3597,7 @@
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E45">
         <v>762</v>
@@ -3656,10 +3659,10 @@
     </row>
     <row r="46" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="D46" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E46">
         <v>768</v>
@@ -3721,7 +3724,7 @@
     </row>
     <row r="47" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E47">
         <v>381</v>
@@ -3783,10 +3786,10 @@
     </row>
     <row r="48" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="D48" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E48">
         <v>482</v>
@@ -3848,7 +3851,7 @@
     </row>
     <row r="49" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E49">
         <v>832</v>
@@ -3910,7 +3913,7 @@
     </row>
     <row r="50" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="E50">
         <v>769</v>
@@ -3972,10 +3975,10 @@
     </row>
     <row r="51" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="D51" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="E51">
         <v>535</v>
@@ -4037,10 +4040,10 @@
     </row>
     <row r="52" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="C52" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E52">
         <v>8248</v>
@@ -4102,10 +4105,10 @@
     </row>
     <row r="53" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D53" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E53">
         <v>996</v>
@@ -4167,7 +4170,7 @@
     </row>
     <row r="54" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E54">
         <v>356</v>
@@ -4229,10 +4232,10 @@
     </row>
     <row r="55" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D55" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E55">
         <v>936</v>
@@ -4294,10 +4297,10 @@
     </row>
     <row r="56" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="D56" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E56">
         <v>566</v>
@@ -4359,7 +4362,7 @@
     </row>
     <row r="57" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="E57">
         <v>408</v>
@@ -4421,7 +4424,7 @@
     </row>
     <row r="58" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="E58">
         <v>461</v>
@@ -4483,7 +4486,7 @@
     </row>
     <row r="59" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E59">
         <v>369</v>
@@ -4545,7 +4548,7 @@
     </row>
     <row r="60" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E60">
         <v>371</v>
@@ -4607,10 +4610,10 @@
     </row>
     <row r="61" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="D61" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E61">
         <v>233</v>
@@ -4672,7 +4675,7 @@
     </row>
     <row r="62" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E62">
         <v>914</v>
@@ -4734,10 +4737,10 @@
     </row>
     <row r="63" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="D63" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E63">
         <v>322</v>
@@ -4799,7 +4802,7 @@
     </row>
     <row r="64" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E64">
         <v>686</v>
@@ -4861,7 +4864,7 @@
     </row>
     <row r="65" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="E65">
         <v>975</v>
@@ -4923,10 +4926,10 @@
     </row>
     <row r="66" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="D66" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="E66">
         <v>655</v>
@@ -4988,10 +4991,10 @@
     </row>
     <row r="67" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="C67" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E67">
         <v>6768</v>
@@ -5053,10 +5056,10 @@
     </row>
     <row r="68" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D68" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E68">
         <v>565</v>
@@ -5118,7 +5121,7 @@
     </row>
     <row r="69" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E69">
         <v>972</v>
@@ -5180,10 +5183,10 @@
     </row>
     <row r="70" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D70" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E70">
         <v>354</v>
@@ -5245,10 +5248,10 @@
     </row>
     <row r="71" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="D71" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E71">
         <v>559</v>
@@ -5310,7 +5313,7 @@
     </row>
     <row r="72" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="E72">
         <v>255</v>
@@ -5372,7 +5375,7 @@
     </row>
     <row r="73" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="E73">
         <v>546</v>
@@ -5434,7 +5437,7 @@
     </row>
     <row r="74" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E74">
         <v>965</v>
@@ -5496,7 +5499,7 @@
     </row>
     <row r="75" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E75">
         <v>110</v>
@@ -5558,10 +5561,10 @@
     </row>
     <row r="76" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="D76" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E76">
         <v>240</v>
@@ -5623,7 +5626,7 @@
     </row>
     <row r="77" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E77">
         <v>291</v>
@@ -5685,10 +5688,10 @@
     </row>
     <row r="78" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="D78" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E78">
         <v>184</v>
@@ -5750,7 +5753,7 @@
     </row>
     <row r="79" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E79">
         <v>522</v>
@@ -5812,7 +5815,7 @@
     </row>
     <row r="80" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="E80">
         <v>669</v>
@@ -5874,10 +5877,10 @@
     </row>
     <row r="81" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="D81" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="E81">
         <v>536</v>
@@ -5939,10 +5942,10 @@
     </row>
     <row r="82" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C82" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E82">
         <v>9629</v>
@@ -6004,10 +6007,10 @@
     </row>
     <row r="83" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D83" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E83">
         <v>122</v>
@@ -6069,7 +6072,7 @@
     </row>
     <row r="84" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D84" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E84">
         <v>734</v>
@@ -6131,10 +6134,10 @@
     </row>
     <row r="85" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D85" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E85">
         <v>984</v>
@@ -6196,10 +6199,10 @@
     </row>
     <row r="86" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="D86" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E86">
         <v>983</v>
@@ -6261,7 +6264,7 @@
     </row>
     <row r="87" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D87" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="E87">
         <v>803</v>
@@ -6323,7 +6326,7 @@
     </row>
     <row r="88" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="E88">
         <v>929</v>
@@ -6385,7 +6388,7 @@
     </row>
     <row r="89" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D89" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E89">
         <v>991</v>
@@ -6447,7 +6450,7 @@
     </row>
     <row r="90" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D90" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E90">
         <v>541</v>
@@ -6509,10 +6512,10 @@
     </row>
     <row r="91" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="D91" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E91">
         <v>469</v>
@@ -6574,7 +6577,7 @@
     </row>
     <row r="92" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D92" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E92">
         <v>517</v>
@@ -6636,10 +6639,10 @@
     </row>
     <row r="93" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="D93" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E93">
         <v>262</v>
@@ -6701,7 +6704,7 @@
     </row>
     <row r="94" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D94" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E94">
         <v>742</v>
@@ -6763,7 +6766,7 @@
     </row>
     <row r="95" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D95" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="E95">
         <v>831</v>
@@ -6825,10 +6828,10 @@
     </row>
     <row r="96" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="D96" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="E96">
         <v>721</v>
@@ -6890,10 +6893,10 @@
     </row>
     <row r="97" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="C97" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E97">
         <v>8909</v>
@@ -6955,10 +6958,10 @@
     </row>
     <row r="98" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D98" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E98">
         <v>847</v>
@@ -7020,7 +7023,7 @@
     </row>
     <row r="99" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D99" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E99">
         <v>629</v>
@@ -7082,10 +7085,10 @@
     </row>
     <row r="100" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D100" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E100">
         <v>323</v>
@@ -7147,10 +7150,10 @@
     </row>
     <row r="101" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="D101" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E101">
         <v>487</v>
@@ -7212,7 +7215,7 @@
     </row>
     <row r="102" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D102" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="E102">
         <v>949</v>
@@ -7274,7 +7277,7 @@
     </row>
     <row r="103" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D103" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="E103">
         <v>551</v>
@@ -7336,7 +7339,7 @@
     </row>
     <row r="104" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D104" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E104">
         <v>542</v>
@@ -7398,7 +7401,7 @@
     </row>
     <row r="105" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D105" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E105">
         <v>441</v>
@@ -7460,10 +7463,10 @@
     </row>
     <row r="106" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="D106" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E106">
         <v>801</v>
@@ -7525,7 +7528,7 @@
     </row>
     <row r="107" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D107" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E107">
         <v>410</v>
@@ -7587,10 +7590,10 @@
     </row>
     <row r="108" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="D108" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E108">
         <v>950</v>
@@ -7652,7 +7655,7 @@
     </row>
     <row r="109" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D109" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E109">
         <v>636</v>
@@ -7714,7 +7717,7 @@
     </row>
     <row r="110" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D110" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="E110">
         <v>726</v>
@@ -7776,10 +7779,10 @@
     </row>
     <row r="111" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C111" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="D111" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="E111">
         <v>617</v>
@@ -7841,10 +7844,10 @@
     </row>
     <row r="112" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C112" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E112">
         <v>8934</v>
@@ -7906,10 +7909,10 @@
     </row>
     <row r="113" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C113" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D113" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E113">
         <v>901</v>
@@ -7971,7 +7974,7 @@
     </row>
     <row r="114" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D114" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E114">
         <v>611</v>
@@ -8033,10 +8036,10 @@
     </row>
     <row r="115" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C115" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D115" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E115">
         <v>688</v>
@@ -8098,10 +8101,10 @@
     </row>
     <row r="116" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C116" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="D116" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E116">
         <v>841</v>
@@ -8163,7 +8166,7 @@
     </row>
     <row r="117" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D117" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="E117">
         <v>497</v>
@@ -8225,7 +8228,7 @@
     </row>
     <row r="118" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D118" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="E118">
         <v>529</v>
@@ -8287,7 +8290,7 @@
     </row>
     <row r="119" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D119" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E119">
         <v>814</v>
@@ -8349,7 +8352,7 @@
     </row>
     <row r="120" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D120" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E120">
         <v>912</v>
@@ -8411,10 +8414,10 @@
     </row>
     <row r="121" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C121" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="D121" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E121">
         <v>595</v>
@@ -8476,7 +8479,7 @@
     </row>
     <row r="122" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D122" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E122">
         <v>676</v>
@@ -8538,10 +8541,10 @@
     </row>
     <row r="123" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C123" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="D123" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E123">
         <v>859</v>
@@ -8603,7 +8606,7 @@
     </row>
     <row r="124" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D124" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E124">
         <v>313</v>
@@ -8665,7 +8668,7 @@
     </row>
     <row r="125" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D125" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="E125">
         <v>419</v>
@@ -8727,10 +8730,10 @@
     </row>
     <row r="126" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C126" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="D126" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="E126">
         <v>279</v>
@@ -8792,10 +8795,10 @@
     </row>
     <row r="127" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="C127" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E127">
         <v>8429</v>
@@ -8857,10 +8860,10 @@
     </row>
     <row r="128" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C128" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D128" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E128">
         <v>210</v>
@@ -8922,7 +8925,7 @@
     </row>
     <row r="129" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D129" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E129">
         <v>988</v>
@@ -8984,10 +8987,10 @@
     </row>
     <row r="130" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C130" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D130" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E130">
         <v>856</v>
@@ -9049,10 +9052,10 @@
     </row>
     <row r="131" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C131" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="D131" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E131">
         <v>858</v>
@@ -9114,7 +9117,7 @@
     </row>
     <row r="132" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D132" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="E132">
         <v>851</v>
@@ -9176,7 +9179,7 @@
     </row>
     <row r="133" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D133" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="E133">
         <v>767</v>
@@ -9238,7 +9241,7 @@
     </row>
     <row r="134" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D134" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E134">
         <v>431</v>
@@ -9300,7 +9303,7 @@
     </row>
     <row r="135" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D135" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E135">
         <v>608</v>
@@ -9362,10 +9365,10 @@
     </row>
     <row r="136" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C136" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="D136" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E136">
         <v>956</v>
@@ -9427,7 +9430,7 @@
     </row>
     <row r="137" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D137" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E137">
         <v>294</v>
@@ -9489,10 +9492,10 @@
     </row>
     <row r="138" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C138" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="D138" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E138">
         <v>631</v>
@@ -9554,7 +9557,7 @@
     </row>
     <row r="139" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D139" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E139">
         <v>291</v>
@@ -9616,7 +9619,7 @@
     </row>
     <row r="140" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D140" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="E140">
         <v>342</v>
@@ -9678,10 +9681,10 @@
     </row>
     <row r="141" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C141" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="D141" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="E141">
         <v>346</v>
@@ -9743,10 +9746,10 @@
     </row>
     <row r="142" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="C142" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E142">
         <v>8969</v>
@@ -9808,10 +9811,10 @@
     </row>
     <row r="143" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C143" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D143" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E143">
         <v>589</v>
@@ -9873,7 +9876,7 @@
     </row>
     <row r="144" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D144" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E144">
         <v>795</v>
@@ -9935,10 +9938,10 @@
     </row>
     <row r="145" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C145" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D145" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E145">
         <v>608</v>
@@ -10000,10 +10003,10 @@
     </row>
     <row r="146" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C146" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="D146" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E146">
         <v>273</v>
@@ -10065,7 +10068,7 @@
     </row>
     <row r="147" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D147" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="E147">
         <v>326</v>
@@ -10127,7 +10130,7 @@
     </row>
     <row r="148" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D148" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="E148">
         <v>876</v>
@@ -10189,7 +10192,7 @@
     </row>
     <row r="149" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D149" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E149">
         <v>950</v>
@@ -10251,7 +10254,7 @@
     </row>
     <row r="150" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D150" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E150">
         <v>397</v>
@@ -10313,10 +10316,10 @@
     </row>
     <row r="151" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C151" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="D151" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E151">
         <v>379</v>
@@ -10378,7 +10381,7 @@
     </row>
     <row r="152" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D152" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E152">
         <v>664</v>
@@ -10440,10 +10443,10 @@
     </row>
     <row r="153" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C153" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="D153" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E153">
         <v>498</v>
@@ -10505,7 +10508,7 @@
     </row>
     <row r="154" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D154" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E154">
         <v>856</v>
@@ -10567,7 +10570,7 @@
     </row>
     <row r="155" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D155" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="E155">
         <v>810</v>
@@ -10629,10 +10632,10 @@
     </row>
     <row r="156" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C156" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="D156" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="E156">
         <v>948</v>
@@ -10694,10 +10697,10 @@
     </row>
     <row r="157" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="C157" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E157">
         <v>7706</v>
@@ -10759,10 +10762,10 @@
     </row>
     <row r="158" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C158" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D158" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E158">
         <v>679</v>
@@ -10824,7 +10827,7 @@
     </row>
     <row r="159" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D159" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E159">
         <v>794</v>
@@ -10886,10 +10889,10 @@
     </row>
     <row r="160" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C160" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D160" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E160">
         <v>641</v>
@@ -10951,10 +10954,10 @@
     </row>
     <row r="161" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C161" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="D161" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E161">
         <v>229</v>
@@ -11016,7 +11019,7 @@
     </row>
     <row r="162" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D162" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="E162">
         <v>789</v>
@@ -11078,7 +11081,7 @@
     </row>
     <row r="163" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D163" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="E163">
         <v>138</v>
@@ -11140,7 +11143,7 @@
     </row>
     <row r="164" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D164" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E164">
         <v>125</v>
@@ -11202,7 +11205,7 @@
     </row>
     <row r="165" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D165" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E165">
         <v>498</v>
@@ -11264,10 +11267,10 @@
     </row>
     <row r="166" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C166" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="D166" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E166">
         <v>452</v>
@@ -11329,7 +11332,7 @@
     </row>
     <row r="167" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D167" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E167">
         <v>550</v>
@@ -11391,10 +11394,10 @@
     </row>
     <row r="168" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C168" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="D168" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E168">
         <v>504</v>
@@ -11456,7 +11459,7 @@
     </row>
     <row r="169" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D169" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E169">
         <v>970</v>
@@ -11518,7 +11521,7 @@
     </row>
     <row r="170" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D170" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="E170">
         <v>990</v>
@@ -11580,10 +11583,10 @@
     </row>
     <row r="171" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C171" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="D171" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="E171">
         <v>347</v>
@@ -11645,10 +11648,10 @@
     </row>
     <row r="172" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="C172" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E172">
         <v>7076</v>
@@ -11710,10 +11713,10 @@
     </row>
     <row r="173" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C173" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D173" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E173">
         <v>808</v>
@@ -11775,7 +11778,7 @@
     </row>
     <row r="174" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D174" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E174">
         <v>546</v>
@@ -11837,10 +11840,10 @@
     </row>
     <row r="175" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C175" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D175" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E175">
         <v>224</v>
@@ -11902,10 +11905,10 @@
     </row>
     <row r="176" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C176" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="D176" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E176">
         <v>559</v>
@@ -11967,7 +11970,7 @@
     </row>
     <row r="177" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D177" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="E177">
         <v>361</v>
@@ -12029,7 +12032,7 @@
     </row>
     <row r="178" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D178" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="E178">
         <v>624</v>
@@ -12091,7 +12094,7 @@
     </row>
     <row r="179" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D179" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E179">
         <v>648</v>
@@ -12153,7 +12156,7 @@
     </row>
     <row r="180" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D180" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E180">
         <v>550</v>
@@ -12215,10 +12218,10 @@
     </row>
     <row r="181" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C181" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="D181" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E181">
         <v>672</v>
@@ -12280,7 +12283,7 @@
     </row>
     <row r="182" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D182" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E182">
         <v>234</v>
@@ -12342,10 +12345,10 @@
     </row>
     <row r="183" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C183" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="D183" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E183">
         <v>516</v>
@@ -12407,7 +12410,7 @@
     </row>
     <row r="184" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D184" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E184">
         <v>493</v>
@@ -12469,7 +12472,7 @@
     </row>
     <row r="185" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D185" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="E185">
         <v>142</v>
@@ -12531,10 +12534,10 @@
     </row>
     <row r="186" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C186" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="D186" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="E186">
         <v>699</v>
@@ -12596,10 +12599,10 @@
     </row>
     <row r="187" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="C187" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E187">
         <v>7857</v>
@@ -12661,10 +12664,10 @@
     </row>
     <row r="188" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C188" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D188" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E188">
         <v>281</v>
@@ -12726,7 +12729,7 @@
     </row>
     <row r="189" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D189" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E189">
         <v>431</v>
@@ -12788,10 +12791,10 @@
     </row>
     <row r="190" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C190" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D190" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E190">
         <v>841</v>
@@ -12853,10 +12856,10 @@
     </row>
     <row r="191" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C191" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="D191" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E191">
         <v>273</v>
@@ -12918,7 +12921,7 @@
     </row>
     <row r="192" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D192" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="E192">
         <v>286</v>
@@ -12980,7 +12983,7 @@
     </row>
     <row r="193" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D193" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="E193">
         <v>457</v>
@@ -13042,7 +13045,7 @@
     </row>
     <row r="194" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D194" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E194">
         <v>761</v>
@@ -13104,7 +13107,7 @@
     </row>
     <row r="195" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D195" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E195">
         <v>781</v>
@@ -13166,10 +13169,10 @@
     </row>
     <row r="196" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C196" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="D196" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E196">
         <v>320</v>
@@ -13231,7 +13234,7 @@
     </row>
     <row r="197" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D197" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E197">
         <v>942</v>
@@ -13293,10 +13296,10 @@
     </row>
     <row r="198" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C198" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="D198" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E198">
         <v>860</v>
@@ -13358,7 +13361,7 @@
     </row>
     <row r="199" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D199" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E199">
         <v>529</v>
@@ -13420,7 +13423,7 @@
     </row>
     <row r="200" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D200" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="E200">
         <v>955</v>
@@ -13482,10 +13485,10 @@
     </row>
     <row r="201" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C201" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="D201" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="E201">
         <v>140</v>
@@ -13547,10 +13550,10 @@
     </row>
     <row r="202" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="C202" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E202">
         <v>8354</v>
@@ -13612,10 +13615,10 @@
     </row>
     <row r="203" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C203" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D203" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E203">
         <v>946</v>
@@ -13677,7 +13680,7 @@
     </row>
     <row r="204" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D204" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E204">
         <v>849</v>
@@ -13739,10 +13742,10 @@
     </row>
     <row r="205" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C205" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D205" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E205">
         <v>943</v>
@@ -13804,10 +13807,10 @@
     </row>
     <row r="206" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C206" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="D206" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E206">
         <v>269</v>
@@ -13869,7 +13872,7 @@
     </row>
     <row r="207" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D207" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="E207">
         <v>734</v>
@@ -13931,7 +13934,7 @@
     </row>
     <row r="208" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D208" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="E208">
         <v>441</v>
@@ -13993,7 +13996,7 @@
     </row>
     <row r="209" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D209" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E209">
         <v>844</v>
@@ -14055,7 +14058,7 @@
     </row>
     <row r="210" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D210" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E210">
         <v>168</v>
@@ -14117,10 +14120,10 @@
     </row>
     <row r="211" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C211" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="D211" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E211">
         <v>678</v>
@@ -14182,7 +14185,7 @@
     </row>
     <row r="212" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D212" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E212">
         <v>885</v>
@@ -14244,10 +14247,10 @@
     </row>
     <row r="213" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C213" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="D213" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E213">
         <v>324</v>
@@ -14309,7 +14312,7 @@
     </row>
     <row r="214" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D214" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E214">
         <v>385</v>
@@ -14371,7 +14374,7 @@
     </row>
     <row r="215" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D215" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="E215">
         <v>567</v>
@@ -14433,10 +14436,10 @@
     </row>
     <row r="216" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C216" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="D216" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="E216">
         <v>321</v>
@@ -14498,10 +14501,10 @@
     </row>
     <row r="217" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="C217" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E217">
         <v>8540</v>
@@ -14563,10 +14566,10 @@
     </row>
     <row r="218" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C218" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D218" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E218">
         <v>875</v>
@@ -14628,7 +14631,7 @@
     </row>
     <row r="219" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D219" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E219">
         <v>492</v>
@@ -14690,10 +14693,10 @@
     </row>
     <row r="220" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C220" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D220" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E220">
         <v>551</v>
@@ -14755,10 +14758,10 @@
     </row>
     <row r="221" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C221" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="D221" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E221">
         <v>101</v>
@@ -14820,7 +14823,7 @@
     </row>
     <row r="222" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D222" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="E222">
         <v>805</v>
@@ -14882,7 +14885,7 @@
     </row>
     <row r="223" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D223" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="E223">
         <v>158</v>
@@ -14944,7 +14947,7 @@
     </row>
     <row r="224" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D224" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E224">
         <v>151</v>
@@ -15006,7 +15009,7 @@
     </row>
     <row r="225" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D225" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E225">
         <v>639</v>
@@ -15068,10 +15071,10 @@
     </row>
     <row r="226" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C226" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="D226" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E226">
         <v>860</v>
@@ -15133,7 +15136,7 @@
     </row>
     <row r="227" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D227" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E227">
         <v>915</v>
@@ -15195,10 +15198,10 @@
     </row>
     <row r="228" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C228" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="D228" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E228">
         <v>631</v>
@@ -15260,7 +15263,7 @@
     </row>
     <row r="229" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D229" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E229">
         <v>906</v>
@@ -15322,7 +15325,7 @@
     </row>
     <row r="230" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D230" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="E230">
         <v>658</v>
@@ -15384,10 +15387,10 @@
     </row>
     <row r="231" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C231" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="D231" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="E231">
         <v>798</v>
@@ -15449,13 +15452,13 @@
     </row>
     <row r="232" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="B232" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C232" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E232">
         <v>9153</v>
@@ -15517,10 +15520,10 @@
     </row>
     <row r="233" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C233" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D233" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E233">
         <v>998</v>
@@ -15582,7 +15585,7 @@
     </row>
     <row r="234" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D234" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E234">
         <v>184</v>
@@ -15644,10 +15647,10 @@
     </row>
     <row r="235" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C235" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D235" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E235">
         <v>851</v>
@@ -15709,10 +15712,10 @@
     </row>
     <row r="236" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C236" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="D236" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E236">
         <v>839</v>
@@ -15774,7 +15777,7 @@
     </row>
     <row r="237" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D237" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="E237">
         <v>445</v>
@@ -15836,7 +15839,7 @@
     </row>
     <row r="238" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D238" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="E238">
         <v>446</v>
@@ -15898,7 +15901,7 @@
     </row>
     <row r="239" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D239" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E239">
         <v>965</v>
@@ -15960,7 +15963,7 @@
     </row>
     <row r="240" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D240" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E240">
         <v>844</v>
@@ -16022,10 +16025,10 @@
     </row>
     <row r="241" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C241" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="D241" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E241">
         <v>661</v>
@@ -16087,7 +16090,7 @@
     </row>
     <row r="242" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D242" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E242">
         <v>688</v>
@@ -16149,10 +16152,10 @@
     </row>
     <row r="243" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C243" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="D243" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E243">
         <v>275</v>
@@ -16214,7 +16217,7 @@
     </row>
     <row r="244" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D244" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E244">
         <v>881</v>
@@ -16276,7 +16279,7 @@
     </row>
     <row r="245" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D245" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="E245">
         <v>279</v>
@@ -16338,10 +16341,10 @@
     </row>
     <row r="246" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C246" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="D246" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="E246">
         <v>797</v>
@@ -16403,10 +16406,10 @@
     </row>
     <row r="247" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B247" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="C247" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E247">
         <v>6352</v>
@@ -16468,10 +16471,10 @@
     </row>
     <row r="248" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C248" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D248" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E248">
         <v>214</v>
@@ -16533,7 +16536,7 @@
     </row>
     <row r="249" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D249" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E249">
         <v>797</v>
@@ -16595,10 +16598,10 @@
     </row>
     <row r="250" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C250" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D250" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E250">
         <v>234</v>
@@ -16660,10 +16663,10 @@
     </row>
     <row r="251" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C251" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="D251" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E251">
         <v>811</v>
@@ -16725,7 +16728,7 @@
     </row>
     <row r="252" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D252" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="E252">
         <v>333</v>
@@ -16787,7 +16790,7 @@
     </row>
     <row r="253" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D253" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="E253">
         <v>226</v>
@@ -16849,7 +16852,7 @@
     </row>
     <row r="254" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D254" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E254">
         <v>191</v>
@@ -16911,7 +16914,7 @@
     </row>
     <row r="255" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D255" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E255">
         <v>669</v>
@@ -16973,10 +16976,10 @@
     </row>
     <row r="256" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C256" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="D256" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E256">
         <v>534</v>
@@ -17038,7 +17041,7 @@
     </row>
     <row r="257" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D257" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E257">
         <v>873</v>
@@ -17100,10 +17103,10 @@
     </row>
     <row r="258" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C258" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="D258" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E258">
         <v>374</v>
@@ -17165,7 +17168,7 @@
     </row>
     <row r="259" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D259" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E259">
         <v>537</v>
@@ -17227,7 +17230,7 @@
     </row>
     <row r="260" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D260" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="E260">
         <v>167</v>
@@ -17289,10 +17292,10 @@
     </row>
     <row r="261" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C261" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="D261" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="E261">
         <v>392</v>
@@ -17354,10 +17357,10 @@
     </row>
     <row r="262" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B262" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="C262" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E262">
         <v>9195</v>
@@ -17419,10 +17422,10 @@
     </row>
     <row r="263" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C263" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D263" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E263">
         <v>474</v>
@@ -17484,7 +17487,7 @@
     </row>
     <row r="264" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D264" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E264">
         <v>619</v>
@@ -17546,10 +17549,10 @@
     </row>
     <row r="265" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C265" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D265" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E265">
         <v>511</v>
@@ -17611,10 +17614,10 @@
     </row>
     <row r="266" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C266" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="D266" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E266">
         <v>870</v>
@@ -17676,7 +17679,7 @@
     </row>
     <row r="267" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D267" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="E267">
         <v>319</v>
@@ -17738,7 +17741,7 @@
     </row>
     <row r="268" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D268" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="E268">
         <v>647</v>
@@ -17800,7 +17803,7 @@
     </row>
     <row r="269" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D269" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E269">
         <v>976</v>
@@ -17862,7 +17865,7 @@
     </row>
     <row r="270" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D270" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E270">
         <v>211</v>
@@ -17924,10 +17927,10 @@
     </row>
     <row r="271" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C271" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="D271" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E271">
         <v>677</v>
@@ -17989,7 +17992,7 @@
     </row>
     <row r="272" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D272" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E272">
         <v>887</v>
@@ -18051,10 +18054,10 @@
     </row>
     <row r="273" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C273" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="D273" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E273">
         <v>720</v>
@@ -18116,7 +18119,7 @@
     </row>
     <row r="274" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D274" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E274">
         <v>800</v>
@@ -18178,7 +18181,7 @@
     </row>
     <row r="275" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D275" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="E275">
         <v>683</v>
@@ -18240,10 +18243,10 @@
     </row>
     <row r="276" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C276" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="D276" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="E276">
         <v>801</v>
@@ -18305,10 +18308,10 @@
     </row>
     <row r="277" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B277" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="C277" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E277">
         <v>6319</v>
@@ -18370,10 +18373,10 @@
     </row>
     <row r="278" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C278" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D278" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E278">
         <v>219</v>
@@ -18435,7 +18438,7 @@
     </row>
     <row r="279" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D279" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E279">
         <v>924</v>
@@ -18497,10 +18500,10 @@
     </row>
     <row r="280" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C280" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D280" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E280">
         <v>341</v>
@@ -18562,10 +18565,10 @@
     </row>
     <row r="281" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C281" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="D281" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E281">
         <v>455</v>
@@ -18627,7 +18630,7 @@
     </row>
     <row r="282" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D282" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="E282">
         <v>348</v>
@@ -18689,7 +18692,7 @@
     </row>
     <row r="283" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D283" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="E283">
         <v>255</v>
@@ -18751,7 +18754,7 @@
     </row>
     <row r="284" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D284" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E284">
         <v>166</v>
@@ -18813,7 +18816,7 @@
     </row>
     <row r="285" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D285" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E285">
         <v>634</v>
@@ -18875,10 +18878,10 @@
     </row>
     <row r="286" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C286" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="D286" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E286">
         <v>728</v>
@@ -18940,7 +18943,7 @@
     </row>
     <row r="287" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D287" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E287">
         <v>173</v>
@@ -19002,10 +19005,10 @@
     </row>
     <row r="288" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C288" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="D288" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E288">
         <v>732</v>
@@ -19067,7 +19070,7 @@
     </row>
     <row r="289" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D289" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E289">
         <v>481</v>
@@ -19129,7 +19132,7 @@
     </row>
     <row r="290" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D290" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="E290">
         <v>351</v>
@@ -19191,10 +19194,10 @@
     </row>
     <row r="291" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C291" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="D291" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="E291">
         <v>512</v>
@@ -19256,10 +19259,10 @@
     </row>
     <row r="292" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B292" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="C292" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E292">
         <v>8242</v>
@@ -19321,10 +19324,10 @@
     </row>
     <row r="293" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C293" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D293" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E293">
         <v>393</v>
@@ -19386,7 +19389,7 @@
     </row>
     <row r="294" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D294" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E294">
         <v>331</v>
@@ -19448,10 +19451,10 @@
     </row>
     <row r="295" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C295" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D295" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E295">
         <v>710</v>
@@ -19513,10 +19516,10 @@
     </row>
     <row r="296" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C296" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="D296" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E296">
         <v>325</v>
@@ -19578,7 +19581,7 @@
     </row>
     <row r="297" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D297" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="E297">
         <v>474</v>
@@ -19640,7 +19643,7 @@
     </row>
     <row r="298" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D298" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="E298">
         <v>298</v>
@@ -19702,7 +19705,7 @@
     </row>
     <row r="299" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D299" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E299">
         <v>759</v>
@@ -19764,7 +19767,7 @@
     </row>
     <row r="300" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D300" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E300">
         <v>881</v>
@@ -19826,10 +19829,10 @@
     </row>
     <row r="301" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C301" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="D301" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E301">
         <v>292</v>
@@ -19891,7 +19894,7 @@
     </row>
     <row r="302" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D302" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E302">
         <v>464</v>
@@ -19953,10 +19956,10 @@
     </row>
     <row r="303" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C303" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="D303" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E303">
         <v>874</v>
@@ -20018,7 +20021,7 @@
     </row>
     <row r="304" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D304" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E304">
         <v>922</v>
@@ -20080,7 +20083,7 @@
     </row>
     <row r="305" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D305" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="E305">
         <v>676</v>
@@ -20142,10 +20145,10 @@
     </row>
     <row r="306" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C306" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="D306" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="E306">
         <v>843</v>
@@ -20207,10 +20210,10 @@
     </row>
     <row r="307" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B307" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="C307" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E307">
         <v>7084</v>
@@ -20272,10 +20275,10 @@
     </row>
     <row r="308" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C308" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D308" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E308">
         <v>301</v>
@@ -20337,7 +20340,7 @@
     </row>
     <row r="309" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D309" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E309">
         <v>1000</v>
@@ -20399,10 +20402,10 @@
     </row>
     <row r="310" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C310" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D310" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E310">
         <v>137</v>
@@ -20464,10 +20467,10 @@
     </row>
     <row r="311" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C311" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="D311" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E311">
         <v>932</v>
@@ -20529,7 +20532,7 @@
     </row>
     <row r="312" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D312" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="E312">
         <v>635</v>
@@ -20591,7 +20594,7 @@
     </row>
     <row r="313" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D313" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="E313">
         <v>695</v>
@@ -20653,7 +20656,7 @@
     </row>
     <row r="314" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D314" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E314">
         <v>756</v>
@@ -20715,7 +20718,7 @@
     </row>
     <row r="315" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D315" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E315">
         <v>494</v>
@@ -20777,10 +20780,10 @@
     </row>
     <row r="316" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C316" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="D316" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E316">
         <v>139</v>
@@ -20842,7 +20845,7 @@
     </row>
     <row r="317" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D317" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E317">
         <v>477</v>
@@ -20904,10 +20907,10 @@
     </row>
     <row r="318" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C318" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="D318" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E318">
         <v>131</v>
@@ -20969,7 +20972,7 @@
     </row>
     <row r="319" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D319" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E319">
         <v>779</v>
@@ -21031,7 +21034,7 @@
     </row>
     <row r="320" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D320" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="E320">
         <v>301</v>
@@ -21093,10 +21096,10 @@
     </row>
     <row r="321" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C321" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="D321" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="E321">
         <v>307</v>
@@ -21158,13 +21161,13 @@
     </row>
     <row r="322" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="B322" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="C322" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E322">
         <v>6799</v>
@@ -21226,10 +21229,10 @@
     </row>
     <row r="323" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C323" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D323" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E323">
         <v>977</v>
@@ -21291,7 +21294,7 @@
     </row>
     <row r="324" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D324" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E324">
         <v>271</v>
@@ -21353,10 +21356,10 @@
     </row>
     <row r="325" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C325" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D325" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E325">
         <v>651</v>
@@ -21418,10 +21421,10 @@
     </row>
     <row r="326" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C326" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="D326" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E326">
         <v>838</v>
@@ -21483,7 +21486,7 @@
     </row>
     <row r="327" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D327" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="E327">
         <v>294</v>
@@ -21545,7 +21548,7 @@
     </row>
     <row r="328" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D328" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="E328">
         <v>755</v>
@@ -21607,7 +21610,7 @@
     </row>
     <row r="329" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D329" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E329">
         <v>935</v>
@@ -21669,7 +21672,7 @@
     </row>
     <row r="330" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D330" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E330">
         <v>116</v>
@@ -21731,10 +21734,10 @@
     </row>
     <row r="331" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C331" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="D331" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E331">
         <v>201</v>
@@ -21796,7 +21799,7 @@
     </row>
     <row r="332" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D332" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E332">
         <v>115</v>
@@ -21858,10 +21861,10 @@
     </row>
     <row r="333" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C333" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="D333" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E333">
         <v>372</v>
@@ -21923,7 +21926,7 @@
     </row>
     <row r="334" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D334" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E334">
         <v>356</v>
@@ -21985,7 +21988,7 @@
     </row>
     <row r="335" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D335" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="E335">
         <v>732</v>
@@ -22047,10 +22050,10 @@
     </row>
     <row r="336" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C336" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="D336" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="E336">
         <v>186</v>
@@ -22112,10 +22115,10 @@
     </row>
     <row r="337" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B337" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="C337" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E337">
         <v>9828</v>
@@ -22177,10 +22180,10 @@
     </row>
     <row r="338" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C338" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D338" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E338">
         <v>918</v>
@@ -22242,7 +22245,7 @@
     </row>
     <row r="339" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D339" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E339">
         <v>982</v>
@@ -22304,10 +22307,10 @@
     </row>
     <row r="340" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C340" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D340" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E340">
         <v>838</v>
@@ -22369,10 +22372,10 @@
     </row>
     <row r="341" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C341" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="D341" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E341">
         <v>353</v>
@@ -22434,7 +22437,7 @@
     </row>
     <row r="342" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D342" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="E342">
         <v>805</v>
@@ -22496,7 +22499,7 @@
     </row>
     <row r="343" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D343" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="E343">
         <v>892</v>
@@ -22558,7 +22561,7 @@
     </row>
     <row r="344" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D344" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E344">
         <v>877</v>
@@ -22620,7 +22623,7 @@
     </row>
     <row r="345" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D345" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E345">
         <v>879</v>
@@ -22682,10 +22685,10 @@
     </row>
     <row r="346" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C346" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="D346" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E346">
         <v>994</v>
@@ -22747,7 +22750,7 @@
     </row>
     <row r="347" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D347" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E347">
         <v>164</v>
@@ -22809,10 +22812,10 @@
     </row>
     <row r="348" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C348" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="D348" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E348">
         <v>929</v>
@@ -22874,7 +22877,7 @@
     </row>
     <row r="349" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D349" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E349">
         <v>874</v>
@@ -22936,7 +22939,7 @@
     </row>
     <row r="350" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D350" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="E350">
         <v>121</v>
@@ -22998,10 +23001,10 @@
     </row>
     <row r="351" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C351" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="D351" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="E351">
         <v>202</v>
@@ -23063,13 +23066,13 @@
     </row>
     <row r="352" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="B352" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="C352" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E352">
         <v>7172</v>
@@ -23131,10 +23134,10 @@
     </row>
     <row r="353" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C353" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D353" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E353">
         <v>263</v>
@@ -23196,7 +23199,7 @@
     </row>
     <row r="354" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D354" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E354">
         <v>105</v>
@@ -23258,10 +23261,10 @@
     </row>
     <row r="355" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C355" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D355" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E355">
         <v>916</v>
@@ -23323,10 +23326,10 @@
     </row>
     <row r="356" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C356" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="D356" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E356">
         <v>783</v>
@@ -23388,7 +23391,7 @@
     </row>
     <row r="357" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D357" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="E357">
         <v>594</v>
@@ -23450,7 +23453,7 @@
     </row>
     <row r="358" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D358" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="E358">
         <v>108</v>
@@ -23512,7 +23515,7 @@
     </row>
     <row r="359" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D359" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E359">
         <v>636</v>
@@ -23574,7 +23577,7 @@
     </row>
     <row r="360" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D360" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E360">
         <v>231</v>
@@ -23636,10 +23639,10 @@
     </row>
     <row r="361" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C361" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="D361" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E361">
         <v>336</v>
@@ -23701,7 +23704,7 @@
     </row>
     <row r="362" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D362" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E362">
         <v>580</v>
@@ -23763,10 +23766,10 @@
     </row>
     <row r="363" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C363" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="D363" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E363">
         <v>455</v>
@@ -23828,7 +23831,7 @@
     </row>
     <row r="364" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D364" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E364">
         <v>754</v>
@@ -23890,7 +23893,7 @@
     </row>
     <row r="365" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D365" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="E365">
         <v>573</v>
@@ -23952,10 +23955,10 @@
     </row>
     <row r="366" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C366" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="D366" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="E366">
         <v>838</v>
@@ -24017,10 +24020,10 @@
     </row>
     <row r="367" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B367" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="C367" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E367">
         <v>7652</v>
@@ -24082,10 +24085,10 @@
     </row>
     <row r="368" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C368" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D368" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E368">
         <v>264</v>
@@ -24147,7 +24150,7 @@
     </row>
     <row r="369" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D369" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E369">
         <v>500</v>
@@ -24209,10 +24212,10 @@
     </row>
     <row r="370" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C370" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D370" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E370">
         <v>884</v>
@@ -24274,10 +24277,10 @@
     </row>
     <row r="371" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C371" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="D371" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E371">
         <v>326</v>
@@ -24339,7 +24342,7 @@
     </row>
     <row r="372" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D372" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="E372">
         <v>844</v>
@@ -24401,7 +24404,7 @@
     </row>
     <row r="373" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D373" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="E373">
         <v>565</v>
@@ -24463,7 +24466,7 @@
     </row>
     <row r="374" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D374" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E374">
         <v>991</v>
@@ -24525,7 +24528,7 @@
     </row>
     <row r="375" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D375" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E375">
         <v>508</v>
@@ -24587,10 +24590,10 @@
     </row>
     <row r="376" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C376" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="D376" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E376">
         <v>149</v>
@@ -24652,7 +24655,7 @@
     </row>
     <row r="377" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D377" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E377">
         <v>389</v>
@@ -24714,10 +24717,10 @@
     </row>
     <row r="378" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C378" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="D378" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E378">
         <v>619</v>
@@ -24779,7 +24782,7 @@
     </row>
     <row r="379" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D379" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E379">
         <v>655</v>
@@ -24841,7 +24844,7 @@
     </row>
     <row r="380" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D380" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="E380">
         <v>528</v>
@@ -24903,10 +24906,10 @@
     </row>
     <row r="381" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C381" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="D381" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="E381">
         <v>430</v>
@@ -24968,10 +24971,10 @@
     </row>
     <row r="382" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B382" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="C382" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E382">
         <v>8880</v>
@@ -25033,10 +25036,10 @@
     </row>
     <row r="383" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C383" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D383" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E383">
         <v>304</v>
@@ -25098,7 +25101,7 @@
     </row>
     <row r="384" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D384" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E384">
         <v>484</v>
@@ -25160,10 +25163,10 @@
     </row>
     <row r="385" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C385" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D385" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E385">
         <v>339</v>
@@ -25225,10 +25228,10 @@
     </row>
     <row r="386" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C386" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="D386" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E386">
         <v>935</v>
@@ -25290,7 +25293,7 @@
     </row>
     <row r="387" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D387" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="E387">
         <v>493</v>
@@ -25352,7 +25355,7 @@
     </row>
     <row r="388" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D388" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="E388">
         <v>950</v>
@@ -25414,7 +25417,7 @@
     </row>
     <row r="389" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D389" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E389">
         <v>546</v>
@@ -25476,7 +25479,7 @@
     </row>
     <row r="390" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D390" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E390">
         <v>506</v>
@@ -25538,10 +25541,10 @@
     </row>
     <row r="391" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C391" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="D391" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E391">
         <v>729</v>
@@ -25603,7 +25606,7 @@
     </row>
     <row r="392" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D392" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E392">
         <v>823</v>
@@ -25665,10 +25668,10 @@
     </row>
     <row r="393" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C393" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="D393" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E393">
         <v>897</v>
@@ -25730,7 +25733,7 @@
     </row>
     <row r="394" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D394" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E394">
         <v>301</v>
@@ -25792,7 +25795,7 @@
     </row>
     <row r="395" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D395" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="E395">
         <v>598</v>
@@ -25854,10 +25857,10 @@
     </row>
     <row r="396" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C396" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="D396" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="E396">
         <v>975</v>
@@ -25919,10 +25922,10 @@
     </row>
     <row r="397" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B397" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="C397" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E397">
         <v>8471</v>
@@ -25984,10 +25987,10 @@
     </row>
     <row r="398" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C398" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D398" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E398">
         <v>486</v>
@@ -26049,7 +26052,7 @@
     </row>
     <row r="399" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D399" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E399">
         <v>603</v>
@@ -26111,10 +26114,10 @@
     </row>
     <row r="400" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C400" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D400" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E400">
         <v>858</v>
@@ -26176,10 +26179,10 @@
     </row>
     <row r="401" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C401" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="D401" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E401">
         <v>501</v>
@@ -26241,7 +26244,7 @@
     </row>
     <row r="402" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D402" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="E402">
         <v>520</v>
@@ -26303,7 +26306,7 @@
     </row>
     <row r="403" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D403" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="E403">
         <v>813</v>
@@ -26365,7 +26368,7 @@
     </row>
     <row r="404" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D404" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E404">
         <v>549</v>
@@ -26427,7 +26430,7 @@
     </row>
     <row r="405" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D405" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E405">
         <v>501</v>
@@ -26489,10 +26492,10 @@
     </row>
     <row r="406" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C406" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="D406" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E406">
         <v>801</v>
@@ -26554,7 +26557,7 @@
     </row>
     <row r="407" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D407" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E407">
         <v>523</v>
@@ -26616,10 +26619,10 @@
     </row>
     <row r="408" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C408" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="D408" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E408">
         <v>681</v>
@@ -26681,7 +26684,7 @@
     </row>
     <row r="409" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D409" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E409">
         <v>676</v>
@@ -26743,7 +26746,7 @@
     </row>
     <row r="410" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D410" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="E410">
         <v>592</v>
@@ -26805,10 +26808,10 @@
     </row>
     <row r="411" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C411" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="D411" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="E411">
         <v>367</v>
@@ -26870,10 +26873,10 @@
     </row>
     <row r="412" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B412" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="C412" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E412">
         <v>7572</v>
@@ -26935,10 +26938,10 @@
     </row>
     <row r="413" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C413" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D413" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E413">
         <v>460</v>
@@ -27000,7 +27003,7 @@
     </row>
     <row r="414" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D414" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E414">
         <v>650</v>
@@ -27062,10 +27065,10 @@
     </row>
     <row r="415" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C415" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D415" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E415">
         <v>965</v>
@@ -27127,10 +27130,10 @@
     </row>
     <row r="416" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C416" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="D416" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E416">
         <v>190</v>
@@ -27192,7 +27195,7 @@
     </row>
     <row r="417" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D417" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="E417">
         <v>145</v>
@@ -27254,7 +27257,7 @@
     </row>
     <row r="418" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D418" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="E418">
         <v>771</v>
@@ -27316,7 +27319,7 @@
     </row>
     <row r="419" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D419" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E419">
         <v>702</v>
@@ -27378,7 +27381,7 @@
     </row>
     <row r="420" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D420" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E420">
         <v>985</v>
@@ -27440,10 +27443,10 @@
     </row>
     <row r="421" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C421" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="D421" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E421">
         <v>852</v>
@@ -27505,7 +27508,7 @@
     </row>
     <row r="422" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D422" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E422">
         <v>433</v>
@@ -27567,10 +27570,10 @@
     </row>
     <row r="423" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C423" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="D423" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E423">
         <v>223</v>
@@ -27632,7 +27635,7 @@
     </row>
     <row r="424" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D424" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E424">
         <v>595</v>
@@ -27694,7 +27697,7 @@
     </row>
     <row r="425" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D425" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="E425">
         <v>318</v>
@@ -27756,10 +27759,10 @@
     </row>
     <row r="426" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C426" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="D426" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="E426">
         <v>283</v>
@@ -27821,10 +27824,10 @@
     </row>
     <row r="427" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B427" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="C427" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E427">
         <v>8483</v>
@@ -27886,10 +27889,10 @@
     </row>
     <row r="428" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C428" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D428" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E428">
         <v>256</v>
@@ -27951,7 +27954,7 @@
     </row>
     <row r="429" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D429" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E429">
         <v>353</v>
@@ -28013,10 +28016,10 @@
     </row>
     <row r="430" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C430" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D430" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E430">
         <v>527</v>
@@ -28078,10 +28081,10 @@
     </row>
     <row r="431" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C431" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="D431" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E431">
         <v>351</v>
@@ -28143,7 +28146,7 @@
     </row>
     <row r="432" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D432" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="E432">
         <v>751</v>
@@ -28205,7 +28208,7 @@
     </row>
     <row r="433" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D433" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="E433">
         <v>696</v>
@@ -28267,7 +28270,7 @@
     </row>
     <row r="434" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D434" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E434">
         <v>390</v>
@@ -28329,7 +28332,7 @@
     </row>
     <row r="435" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D435" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E435">
         <v>899</v>
@@ -28391,10 +28394,10 @@
     </row>
     <row r="436" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C436" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="D436" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E436">
         <v>183</v>
@@ -28456,7 +28459,7 @@
     </row>
     <row r="437" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D437" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E437">
         <v>929</v>
@@ -28518,10 +28521,10 @@
     </row>
     <row r="438" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C438" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="D438" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E438">
         <v>938</v>
@@ -28583,7 +28586,7 @@
     </row>
     <row r="439" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D439" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E439">
         <v>986</v>
@@ -28645,7 +28648,7 @@
     </row>
     <row r="440" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D440" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="E440">
         <v>758</v>
@@ -28707,10 +28710,10 @@
     </row>
     <row r="441" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C441" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="D441" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="E441">
         <v>466</v>
@@ -28772,10 +28775,10 @@
     </row>
     <row r="442" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B442" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C442" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E442">
         <v>8479</v>
@@ -28837,10 +28840,10 @@
     </row>
     <row r="443" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C443" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D443" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E443">
         <v>250</v>
@@ -28902,7 +28905,7 @@
     </row>
     <row r="444" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D444" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E444">
         <v>545</v>
@@ -28964,10 +28967,10 @@
     </row>
     <row r="445" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C445" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D445" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E445">
         <v>884</v>
@@ -29029,10 +29032,10 @@
     </row>
     <row r="446" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C446" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="D446" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E446">
         <v>986</v>
@@ -29094,7 +29097,7 @@
     </row>
     <row r="447" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D447" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="E447">
         <v>683</v>
@@ -29156,7 +29159,7 @@
     </row>
     <row r="448" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D448" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="E448">
         <v>716</v>
@@ -29218,7 +29221,7 @@
     </row>
     <row r="449" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D449" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E449">
         <v>524</v>
@@ -29280,7 +29283,7 @@
     </row>
     <row r="450" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D450" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E450">
         <v>589</v>
@@ -29342,10 +29345,10 @@
     </row>
     <row r="451" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C451" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="D451" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E451">
         <v>753</v>
@@ -29407,7 +29410,7 @@
     </row>
     <row r="452" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D452" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E452">
         <v>456</v>
@@ -29469,10 +29472,10 @@
     </row>
     <row r="453" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C453" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="D453" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E453">
         <v>846</v>
@@ -29534,7 +29537,7 @@
     </row>
     <row r="454" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D454" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E454">
         <v>206</v>
@@ -29596,7 +29599,7 @@
     </row>
     <row r="455" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D455" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="E455">
         <v>247</v>
@@ -29658,10 +29661,10 @@
     </row>
     <row r="456" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C456" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="D456" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="E456">
         <v>794</v>
@@ -29723,10 +29726,10 @@
     </row>
     <row r="457" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C457" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E457">
         <v>8257</v>
@@ -29788,10 +29791,10 @@
     </row>
     <row r="458" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C458" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D458" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E458">
         <v>834</v>
@@ -29853,7 +29856,7 @@
     </row>
     <row r="459" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D459" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E459">
         <v>827</v>
@@ -29915,10 +29918,10 @@
     </row>
     <row r="460" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C460" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D460" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E460">
         <v>668</v>
@@ -29980,10 +29983,10 @@
     </row>
     <row r="461" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C461" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="D461" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E461">
         <v>514</v>
@@ -30045,7 +30048,7 @@
     </row>
     <row r="462" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D462" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="E462">
         <v>568</v>
@@ -30107,7 +30110,7 @@
     </row>
     <row r="463" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D463" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="E463">
         <v>515</v>
@@ -30169,7 +30172,7 @@
     </row>
     <row r="464" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D464" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E464">
         <v>189</v>
@@ -30231,7 +30234,7 @@
     </row>
     <row r="465" spans="3:23" x14ac:dyDescent="0.25">
       <c r="D465" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E465">
         <v>650</v>
@@ -30293,10 +30296,10 @@
     </row>
     <row r="466" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C466" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="D466" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E466">
         <v>867</v>
@@ -30358,7 +30361,7 @@
     </row>
     <row r="467" spans="3:23" x14ac:dyDescent="0.25">
       <c r="D467" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E467">
         <v>257</v>
@@ -30420,10 +30423,10 @@
     </row>
     <row r="468" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C468" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="D468" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E468">
         <v>572</v>
@@ -30485,7 +30488,7 @@
     </row>
     <row r="469" spans="3:23" x14ac:dyDescent="0.25">
       <c r="D469" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E469">
         <v>467</v>
@@ -30547,7 +30550,7 @@
     </row>
     <row r="470" spans="3:23" x14ac:dyDescent="0.25">
       <c r="D470" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="E470">
         <v>519</v>
@@ -30609,10 +30612,10 @@
     </row>
     <row r="471" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C471" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="D471" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="E471">
         <v>810</v>
